--- a/test.xlsx
+++ b/test.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="68">
   <si>
     <t xml:space="preserve">@timestamp</t>
   </si>
@@ -157,7 +157,7 @@
     <t xml:space="preserve">March 12th 2020, 19:14:03.005</t>
   </si>
   <si>
-    <t xml:space="preserve">Janitor_Closet_(J)</t>
+    <t xml:space="preserve">Janitor_Closet_J</t>
   </si>
   <si>
     <t xml:space="preserve">Green</t>
@@ -184,7 +184,7 @@
     <t xml:space="preserve">March 12th 2020, 19:14:40.037</t>
   </si>
   <si>
-    <t xml:space="preserve">Blue</t>
+    <t xml:space="preserve">R201</t>
   </si>
   <si>
     <t xml:space="preserve">Orange</t>
@@ -208,7 +208,7 @@
     <t xml:space="preserve">March 12th 2020, 19:15:05.009</t>
   </si>
   <si>
-    <t xml:space="preserve">Red</t>
+    <t xml:space="preserve">R205</t>
   </si>
   <si>
     <t xml:space="preserve">(45, 6, 10)</t>
@@ -237,11 +237,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -257,6 +258,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC9211E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -301,13 +309,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -322,6 +334,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,6 +347,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FFC9211E"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -345,90 +421,91 @@
   </sheetPr>
   <dimension ref="A1:AI19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M8" activeCellId="0" sqref="M8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M10" activeCellId="0" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.98"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="29" min="27" style="2" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="3" t="s">
         <v>24</v>
       </c>
       <c r="AA1" s="2" t="s">
@@ -440,22 +517,22 @@
       <c r="AC1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -529,31 +606,31 @@
       <c r="W2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF2" s="4" t="s">
+      <c r="X2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF2" s="5" t="s">
         <v>40</v>
       </c>
       <c r="AG2" s="0" t="n">
@@ -636,31 +713,31 @@
       <c r="W3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="X3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF3" s="4" t="s">
+      <c r="X3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF3" s="5" t="s">
         <v>40</v>
       </c>
       <c r="AG3" s="0" t="n">
@@ -743,31 +820,31 @@
       <c r="W4" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="X4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF4" s="4" t="s">
+      <c r="X4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF4" s="5" t="s">
         <v>40</v>
       </c>
       <c r="AG4" s="0" t="n">
@@ -850,31 +927,31 @@
       <c r="W5" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="X5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF5" s="4" t="s">
+      <c r="X5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF5" s="5" t="s">
         <v>40</v>
       </c>
       <c r="AG5" s="0" t="n">
@@ -957,31 +1034,31 @@
       <c r="W6" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="X6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF6" s="4" t="s">
+      <c r="X6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF6" s="5" t="s">
         <v>40</v>
       </c>
       <c r="AG6" s="0" t="n">
@@ -1064,31 +1141,31 @@
       <c r="W7" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="X7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF7" s="4" t="s">
+      <c r="X7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF7" s="5" t="s">
         <v>40</v>
       </c>
       <c r="AG7" s="0" t="n">
@@ -1171,31 +1248,31 @@
       <c r="W8" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="X8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF8" s="4" t="s">
+      <c r="X8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF8" s="5" t="s">
         <v>40</v>
       </c>
       <c r="AG8" s="0" t="n">
@@ -1278,31 +1355,31 @@
       <c r="W9" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="X9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF9" s="4" t="s">
+      <c r="X9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF9" s="5" t="s">
         <v>40</v>
       </c>
       <c r="AG9" s="0" t="n">
@@ -1385,31 +1462,31 @@
       <c r="W10" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="X10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF10" s="4" t="s">
+      <c r="X10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF10" s="5" t="s">
         <v>40</v>
       </c>
       <c r="AG10" s="0" t="n">
@@ -1459,14 +1536,14 @@
       <c r="L11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="M11" s="1" t="n">
-        <v>201</v>
+      <c r="M11" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="N11" s="0" t="n">
         <v>2</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="P11" s="0" t="s">
         <v>54</v>
@@ -1478,7 +1555,7 @@
         <v>2.23606797749979</v>
       </c>
       <c r="S11" s="0" t="n">
-        <v>5.09901951359278</v>
+        <v>3</v>
       </c>
       <c r="T11" s="0" t="n">
         <v>0</v>
@@ -1492,31 +1569,31 @@
       <c r="W11" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="X11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF11" s="4" t="s">
+      <c r="X11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF11" s="5" t="s">
         <v>40</v>
       </c>
       <c r="AG11" s="0" t="n">
@@ -1566,14 +1643,14 @@
       <c r="L12" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="M12" s="1" t="n">
-        <v>201</v>
+      <c r="M12" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="N12" s="0" t="n">
         <v>2</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="P12" s="0" t="s">
         <v>54</v>
@@ -1599,31 +1676,31 @@
       <c r="W12" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="X12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF12" s="4" t="s">
+      <c r="X12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF12" s="5" t="s">
         <v>40</v>
       </c>
       <c r="AG12" s="0" t="n">
@@ -1706,31 +1783,31 @@
       <c r="W13" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="X13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF13" s="4" t="s">
+      <c r="X13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF13" s="5" t="s">
         <v>40</v>
       </c>
       <c r="AG13" s="0" t="n">
@@ -1813,31 +1890,31 @@
       <c r="W14" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="X14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF14" s="4" t="s">
+      <c r="X14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF14" s="5" t="s">
         <v>40</v>
       </c>
       <c r="AG14" s="0" t="n">
@@ -1887,14 +1964,14 @@
       <c r="L15" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="M15" s="1" t="n">
-        <v>205</v>
+      <c r="M15" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="N15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="P15" s="0" t="s">
         <v>38</v>
@@ -1920,31 +1997,31 @@
       <c r="W15" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="X15" s="4" t="s">
+      <c r="X15" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="Y15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA15" s="4" t="s">
+      <c r="Y15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA15" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="AB15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF15" s="4" t="s">
+      <c r="AB15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF15" s="5" t="s">
         <v>40</v>
       </c>
       <c r="AG15" s="0" t="n">
@@ -1994,14 +2071,14 @@
       <c r="L16" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="M16" s="1" t="n">
-        <v>205</v>
+      <c r="M16" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="N16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="P16" s="0" t="s">
         <v>38</v>
@@ -2027,31 +2104,31 @@
       <c r="W16" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="X16" s="4" t="s">
+      <c r="X16" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="Y16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA16" s="4" t="s">
+      <c r="Y16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA16" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="AB16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD16" s="4" t="s">
+      <c r="AB16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD16" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="AE16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF16" s="4" t="s">
+      <c r="AE16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF16" s="5" t="s">
         <v>40</v>
       </c>
       <c r="AG16" s="0" t="n">
@@ -2101,14 +2178,14 @@
       <c r="L17" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="M17" s="1" t="n">
-        <v>205</v>
+      <c r="M17" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="N17" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="P17" s="0" t="s">
         <v>38</v>
@@ -2134,31 +2211,31 @@
       <c r="W17" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="X17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF17" s="4" t="s">
+      <c r="X17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF17" s="5" t="s">
         <v>40</v>
       </c>
       <c r="AG17" s="0" t="n">
@@ -2208,14 +2285,14 @@
       <c r="L18" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="M18" s="1" t="n">
-        <v>205</v>
+      <c r="M18" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="N18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="P18" s="0" t="s">
         <v>38</v>
@@ -2241,31 +2318,31 @@
       <c r="W18" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="X18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF18" s="4" t="s">
+      <c r="X18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF18" s="5" t="s">
         <v>40</v>
       </c>
       <c r="AG18" s="0" t="n">
@@ -2315,14 +2392,14 @@
       <c r="L19" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="M19" s="1" t="n">
-        <v>205</v>
+      <c r="M19" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="N19" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="P19" s="0" t="s">
         <v>38</v>
@@ -2348,31 +2425,31 @@
       <c r="W19" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="X19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF19" s="4" t="s">
+      <c r="X19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF19" s="5" t="s">
         <v>40</v>
       </c>
       <c r="AG19" s="0" t="n">
